--- a/enviar.xlsx
+++ b/enviar.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -436,62 +436,62 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>telefone</t>
+          <t>NAME</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>enviado</t>
+          <t>PHONE</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>extra</t>
+          <t>ENVIADOS</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Lucas.europa</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
         <v>41984811386</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>Ok</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>teste1</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Lucas.europa</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
         <v>41984811386</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>Ok</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>teste2</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Lucas.europa</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
         <v>41984811386</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>Ok</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>teste3</t>
         </is>
       </c>
     </row>
